--- a/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
+++ b/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\ObjectArrange\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8392700F-C539-4A34-9DB1-1B1E1A5F04F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Stage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gridy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gridx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +87,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +364,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
+++ b/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\ObjectArrange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8392700F-C539-4A34-9DB1-1B1E1A5F04F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15EF327-22BD-4457-A0C0-D19B59B5E5C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Stage1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>Gridx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,15 +377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -383,13 +395,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -397,7 +412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -407,8 +422,11 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -418,8 +436,11 @@
       <c r="C5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -429,8 +450,11 @@
       <c r="C6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -440,8 +464,11 @@
       <c r="C7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>99</v>
       </c>
@@ -451,8 +478,11 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -462,8 +492,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -473,8 +506,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -484,8 +520,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -495,8 +534,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -505,6 +547,9 @@
       </c>
       <c r="C13">
         <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
+++ b/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\ObjectArrange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15EF327-22BD-4457-A0C0-D19B59B5E5C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78FF3C3-60FB-4797-BAAB-0319AE2A7A71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Stage1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">St1_Target_Defense0	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>St1_Target_Defense1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,15 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -399,20 +411,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -426,7 +438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -440,7 +452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -454,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -468,7 +480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>99</v>
       </c>
@@ -482,7 +494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -495,8 +507,11 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -510,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -524,7 +539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -538,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -550,6 +565,34 @@
       </c>
       <c r="D13" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
+++ b/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\ObjectArrange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78FF3C3-60FB-4797-BAAB-0319AE2A7A71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E948A13-8510-402D-B80A-3333471C187F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Stage1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
   </si>
   <si>
     <t>St1_Target_Defense1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,15 +385,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -411,20 +407,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -438,7 +434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -452,7 +448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -466,7 +462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -480,7 +476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>99</v>
       </c>
@@ -494,7 +490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -507,11 +503,8 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="J9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -525,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -539,7 +532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -553,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -567,7 +560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -581,7 +574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -593,6 +586,62 @@
       </c>
       <c r="D15" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
+++ b/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\ObjectArrange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E948A13-8510-402D-B80A-3333471C187F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D69555D-3833-49BD-8BDB-A36BDAA6473E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,11 +55,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">St1_Target_Defense0	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>St1_Target_Defense1</t>
+    <t>St1TargetDefense0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>St1TargetDefense1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +388,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
+++ b/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\ObjectArrange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D69555D-3833-49BD-8BDB-A36BDAA6473E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316626A8-8BDA-4826-A4B8-A627750DBFE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,42 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="16">
   <si>
-    <t>Stage1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ObjectID</t>
   </si>
   <si>
-    <t>ObjectID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Gridx</t>
   </si>
   <si>
     <t>Gridy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gridx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ObjectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Stage1</t>
   </si>
   <si>
-    <t>player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Player</t>
   </si>
   <si>
-    <t>St1TargetDefense0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Portal</t>
   </si>
   <si>
-    <t>St1TargetDefense1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Yama</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Building_Broken</t>
+  </si>
+  <si>
+    <t>Stage2</t>
+  </si>
+  <si>
+    <t>Defense_Generator_0</t>
+  </si>
+  <si>
+    <t>Defense_Generator_1</t>
+  </si>
+  <si>
+    <t>Stage3</t>
+  </si>
+  <si>
+    <t>Stage4</t>
   </si>
 </sst>
 </file>
@@ -385,50 +397,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -436,55 +448,55 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -492,94 +504,94 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -590,58 +602,894 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>99</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>99</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>99</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>14</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>14</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>15</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>15</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
+++ b/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\ObjectArrange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316626A8-8BDA-4826-A4B8-A627750DBFE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F8C5D0-FA34-4A9C-981E-6850C3F72BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
   <si>
     <t>ObjectID</t>
   </si>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G66" activeCellId="1" sqref="A64:D78 G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1237,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="B62">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,30 +1256,30 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1287,10 +1287,10 @@
         <v>5</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
@@ -1298,30 +1298,30 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B68">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1343,10 +1343,10 @@
         <v>2</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1357,10 +1357,10 @@
         <v>2</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -1371,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1382,30 +1382,30 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1413,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -1427,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -1441,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -1455,40 +1455,12 @@
         <v>3</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>3</v>
-      </c>
-      <c r="B79">
-        <v>15</v>
-      </c>
-      <c r="C79">
-        <v>6</v>
-      </c>
-      <c r="D79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>3</v>
-      </c>
-      <c r="B80">
-        <v>15</v>
-      </c>
-      <c r="C80">
-        <v>5</v>
-      </c>
-      <c r="D80" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
+++ b/Client/Resources/Data/ObjectArrange/ObjectArrange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\ObjectArrange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F8C5D0-FA34-4A9C-981E-6850C3F72BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316626A8-8BDA-4826-A4B8-A627750DBFE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="16">
   <si>
     <t>ObjectID</t>
   </si>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G66" activeCellId="1" sqref="A64:D78 G66"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1237,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="B62">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,30 +1256,30 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1287,10 +1287,10 @@
         <v>5</v>
       </c>
       <c r="B66">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
@@ -1298,30 +1298,30 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1343,10 +1343,10 @@
         <v>2</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1357,10 +1357,10 @@
         <v>2</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -1371,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1382,30 +1382,30 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1413,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -1427,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -1441,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="B77">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -1455,12 +1455,40 @@
         <v>3</v>
       </c>
       <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
         <v>15</v>
       </c>
-      <c r="C78">
-        <v>5</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>15</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
         <v>9</v>
       </c>
     </row>
